--- a/Reference_Genome.xlsx
+++ b/Reference_Genome.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rli3\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB7FD08-ECC6-488A-8A68-3170A5F1C045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="10056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>http://genome.ucsc.edu/FAQ/FAQreleases.html</t>
   </si>
@@ -99,12 +105,24 @@
   </si>
   <si>
     <t>Mus_musculus.GRCm38.dna.primary_assembly.fa.gz</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ftp://ftp.ensembl.org/pub/release-101/fasta/rattus_norvegicus/dna/Rattus_norvegicus.Rnor_6.0.dna.toplevel.fa.gz</t>
+  </si>
+  <si>
+    <t>toplevel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,6 +194,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -223,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,20 +521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" customWidth="1"/>
+    <col min="5" max="5" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -487,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -512,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -532,7 +587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -543,65 +598,93 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="F14" r:id="rId2"/>
-    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -609,12 +692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
